--- a/Hobol/0610/CD/0610 Szolgalmi jog koord.xlsx
+++ b/Hobol/0610/CD/0610 Szolgalmi jog koord.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Munka\Hobol\0610\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="7245" tabRatio="334"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Pontkód</t>
   </si>
@@ -139,11 +134,95 @@
   <si>
     <t>75524.169</t>
   </si>
+  <si>
+    <t>552960.040</t>
+  </si>
+  <si>
+    <t>75600.510</t>
+  </si>
+  <si>
+    <t>552833.540</t>
+  </si>
+  <si>
+    <t>75614.820</t>
+  </si>
+  <si>
+    <t>552744.240</t>
+  </si>
+  <si>
+    <t>74909.280</t>
+  </si>
+  <si>
+    <t>553086.660</t>
+  </si>
+  <si>
+    <t>74872.970</t>
+  </si>
+  <si>
+    <t>553098.230</t>
+  </si>
+  <si>
+    <t>74864.320</t>
+  </si>
+  <si>
+    <t>553122.760</t>
+  </si>
+  <si>
+    <t>74773.740</t>
+  </si>
+  <si>
+    <t>553270.370</t>
+  </si>
+  <si>
+    <t>74729.210</t>
+  </si>
+  <si>
+    <t>553280.850</t>
+  </si>
+  <si>
+    <t>74710.470</t>
+  </si>
+  <si>
+    <t>553275.620</t>
+  </si>
+  <si>
+    <t>74671.040</t>
+  </si>
+  <si>
+    <t>552725.920</t>
+  </si>
+  <si>
+    <t>74723.180</t>
+  </si>
+  <si>
+    <t>552720.640</t>
+  </si>
+  <si>
+    <t>74740.050</t>
+  </si>
+  <si>
+    <t>552740.130</t>
+  </si>
+  <si>
+    <t>74902.900</t>
+  </si>
+  <si>
+    <t>553098.220</t>
+  </si>
+  <si>
+    <t>74864.300</t>
+  </si>
+  <si>
+    <t>552740.150</t>
+  </si>
+  <si>
+    <t>szántás széle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -277,6 +356,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,9 +366,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -350,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,7 +676,7 @@
   <dimension ref="A1:AB95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -612,7 +691,7 @@
     <col min="8" max="8" width="8.42578125" style="12" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="14" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="12" customWidth="1"/>
-    <col min="11" max="14" width="12" style="27" customWidth="1"/>
+    <col min="11" max="14" width="12" style="24" customWidth="1"/>
     <col min="15" max="19" width="11.28515625" style="15" customWidth="1"/>
     <col min="20" max="21" width="10" style="15" customWidth="1"/>
     <col min="22" max="22" width="14.28515625" style="1" customWidth="1"/>
@@ -643,10 +722,10 @@
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -672,10 +751,10 @@
       <c r="H2" s="12"/>
       <c r="I2" s="7"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -692,23 +771,23 @@
       <c r="AB2" s="9"/>
     </row>
     <row r="3" spans="1:28" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="12"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -734,10 +813,10 @@
       <c r="H4" s="21"/>
       <c r="I4" s="7"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -754,27 +833,27 @@
       <c r="AB4" s="9"/>
     </row>
     <row r="5" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -791,27 +870,27 @@
       <c r="AB5" s="9"/>
     </row>
     <row r="6" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -828,27 +907,27 @@
       <c r="AB6" s="9"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -874,10 +953,10 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -894,21 +973,21 @@
       <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="7"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -934,10 +1013,10 @@
       <c r="H10" s="16"/>
       <c r="I10" s="7"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -954,27 +1033,27 @@
       <c r="AB10" s="9"/>
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -991,25 +1070,25 @@
       <c r="AB11" s="9"/>
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="1"/>
@@ -1021,25 +1100,25 @@
       <c r="AB12" s="9"/>
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="1"/>
@@ -1051,25 +1130,25 @@
       <c r="AB13" s="9"/>
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="1"/>
@@ -1081,25 +1160,25 @@
       <c r="AB14" s="9"/>
     </row>
     <row r="15" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
       <c r="V15" s="1"/>
@@ -1111,25 +1190,25 @@
       <c r="AB15" s="9"/>
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="1"/>
@@ -1161,15 +1240,15 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
@@ -1195,122 +1274,276 @@
       <c r="AB23"/>
     </row>
     <row r="24" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12">
+        <v>2000</v>
+      </c>
       <c r="C24" s="21"/>
+      <c r="D24" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="E24" s="21"/>
+      <c r="F24" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="G24" s="21"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12">
+        <v>2001</v>
+      </c>
       <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="21"/>
+      <c r="F25" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="12">
+        <v>2002</v>
+      </c>
       <c r="C26" s="21"/>
+      <c r="D26" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E26" s="21"/>
+      <c r="F26" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="12">
+        <v>2003</v>
+      </c>
       <c r="C27" s="21"/>
+      <c r="D27" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="E27" s="21"/>
+      <c r="F27" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="12">
+        <v>2004</v>
+      </c>
       <c r="C28" s="21"/>
+      <c r="D28" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="E28" s="21"/>
+      <c r="F28" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="12">
+        <v>2005</v>
+      </c>
       <c r="C29" s="22"/>
+      <c r="D29" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="E29" s="22"/>
+      <c r="F29" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H30" s="7"/>
+      <c r="B30" s="12">
+        <v>2006</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="12">
+        <v>2007</v>
+      </c>
       <c r="C31" s="23"/>
+      <c r="D31" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="23"/>
+      <c r="F31" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="G31" s="23"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="32" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12">
+        <v>2008</v>
+      </c>
       <c r="C32" s="19"/>
+      <c r="D32" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="E32" s="19"/>
+      <c r="F32" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="G32" s="19"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="12">
+        <v>2009</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="12">
+        <v>2010</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="12">
+        <v>2011</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="12">
+        <v>20004</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="12">
+        <v>20011</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="20"/>
       <c r="E38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="18"/>
       <c r="E39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="17"/>
       <c r="E40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="17"/>
       <c r="E41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="17"/>
       <c r="E42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
